--- a/AnalyseTime/csvFiles/Uncertainty.xlsx
+++ b/AnalyseTime/csvFiles/Uncertainty.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samuelgrant/Documents/gm2/EpRatio/AnalyseTime/csvFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A954CB3F-772F-B844-8676-5EE3E3AD1F90}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DCCFB6-9BBD-154D-93B1-D8534ED76885}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15760" xr2:uid="{DB225749-ECF2-B549-B856-3A83ADFA3772}"/>
+    <workbookView xWindow="12320" yWindow="820" windowWidth="16100" windowHeight="15760" xr2:uid="{DB225749-ECF2-B549-B856-3A83ADFA3772}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
   <si>
     <t>alpha</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Mean</t>
+  </si>
+  <si>
+    <t>9day</t>
   </si>
 </sst>
 </file>
@@ -418,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCB61D9-766A-3E4D-863E-5552043A17B1}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -546,6 +549,108 @@
         <v>0.1263</v>
       </c>
     </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <f>B20*B27</f>
+        <v>1.6854608700000002E-2</v>
+      </c>
+      <c r="G18">
+        <f>F18*1000</f>
+        <v>16.854608700000004</v>
+      </c>
+      <c r="I18">
+        <f>AVERAGE(G18:G19)</f>
+        <v>15.295624650000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <f>B25*B27</f>
+        <v>1.3736640599999999E-2</v>
+      </c>
+      <c r="G19">
+        <f>F19*1000</f>
+        <v>13.736640599999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>0.13344900000000001</v>
+      </c>
+      <c r="C20">
+        <v>2.85825E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>0.108762</v>
+      </c>
+      <c r="C25">
+        <v>4.32699E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>0.1263</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
